--- a/sortData.xlsx
+++ b/sortData.xlsx
@@ -7,16 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Statements" sheetId="1" r:id="rId1"/>
+    <sheet name="SortedCards" sheetId="1" r:id="rId1"/>
+    <sheet name="Statements" sheetId="2" r:id="rId2"/>
+    <sheet name="Ratings" sheetId="3" r:id="rId3"/>
+    <sheet name="RatingsScale" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
-    <t>text</t>
+    <t>Statement ID</t>
+  </si>
+  <si>
+    <t>Statement</t>
   </si>
   <si>
     <t>I am concerned about working fewer hours</t>
@@ -134,6 +140,27 @@
   </si>
   <si>
     <t>We need to put our employees to work</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>StatementID</t>
+  </si>
+  <si>
+    <t>Feasibility</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -491,327 +518,5046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>13</v>
+      </c>
+      <c r="J1">
+        <v>22</v>
+      </c>
+      <c r="K1">
+        <v>27</v>
+      </c>
+      <c r="L1">
+        <v>28</v>
+      </c>
+      <c r="M1">
+        <v>35</v>
+      </c>
+      <c r="N1">
+        <v>38</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>39</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
+      </c>
+      <c r="Q9">
+        <v>27</v>
+      </c>
+      <c r="R9">
+        <v>28</v>
+      </c>
+      <c r="S9">
+        <v>29</v>
+      </c>
+      <c r="T9">
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <v>32</v>
+      </c>
+      <c r="V9">
+        <v>34</v>
+      </c>
+      <c r="W9">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>36</v>
+      </c>
+      <c r="Y9">
+        <v>37</v>
+      </c>
+      <c r="Z9">
+        <v>38</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>26</v>
+      </c>
+      <c r="S10">
+        <v>27</v>
+      </c>
+      <c r="T10">
+        <v>28</v>
+      </c>
+      <c r="U10">
+        <v>29</v>
+      </c>
+      <c r="V10">
+        <v>31</v>
+      </c>
+      <c r="W10">
+        <v>32</v>
+      </c>
+      <c r="X10">
+        <v>33</v>
+      </c>
+      <c r="Y10">
+        <v>34</v>
+      </c>
+      <c r="Z10">
+        <v>37</v>
+      </c>
+      <c r="AA10">
+        <v>38</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>23</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <v>26</v>
+      </c>
+      <c r="T16">
+        <v>29</v>
+      </c>
+      <c r="U16">
+        <v>33</v>
+      </c>
+      <c r="V16">
+        <v>35</v>
+      </c>
+      <c r="W16">
+        <v>37</v>
+      </c>
+      <c r="X16">
+        <v>38</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>34</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>22</v>
+      </c>
+      <c r="S19">
+        <v>24</v>
+      </c>
+      <c r="T19">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>28</v>
+      </c>
+      <c r="W19">
+        <v>29</v>
+      </c>
+      <c r="X19">
+        <v>31</v>
+      </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
+      <c r="Z19">
+        <v>35</v>
+      </c>
+      <c r="AA19">
+        <v>36</v>
+      </c>
+      <c r="AB19">
+        <v>37</v>
+      </c>
+      <c r="AC19">
+        <v>38</v>
+      </c>
+      <c r="AD19">
+        <v>39</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>21</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>23</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>25</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>29</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>30</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>31</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>33</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>35</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>37</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>38</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>21</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>23</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>24</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>25</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>26</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>27</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>28</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>29</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>31</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>32</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>33</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>34</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>35</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>36</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>37</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>38</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sortData.xlsx
+++ b/sortData.xlsx
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34">
       <c r="A1">
         <v>1</v>
       </c>
@@ -532,325 +532,352 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1">
         <v>27</v>
       </c>
       <c r="L1">
+        <v>33</v>
+      </c>
+      <c r="M1">
+        <v>38</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
         <v>28</v>
       </c>
-      <c r="M1">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
         <v>35</v>
       </c>
-      <c r="N1">
-        <v>38</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
       <c r="J4">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -903,8 +930,17 @@
       <c r="AE4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>1</v>
       </c>
@@ -912,19 +948,19 @@
         <v>5</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>10</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
       </c>
       <c r="F5">
         <v>16</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -933,850 +969,931 @@
         <v>31</v>
       </c>
       <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>39</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>26</v>
+      </c>
+      <c r="S6">
+        <v>28</v>
+      </c>
+      <c r="T6">
+        <v>29</v>
+      </c>
+      <c r="U6">
         <v>32</v>
       </c>
-      <c r="K5">
+      <c r="V6">
+        <v>35</v>
+      </c>
+      <c r="W6">
         <v>36</v>
       </c>
-      <c r="L5">
+      <c r="X6">
+        <v>37</v>
+      </c>
+      <c r="Y6">
+        <v>38</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
         <v>39</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="G10">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
         <v>33</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="K10">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
-      </c>
-      <c r="K9">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="O9">
-        <v>20</v>
-      </c>
-      <c r="P9">
-        <v>22</v>
-      </c>
-      <c r="Q9">
-        <v>27</v>
-      </c>
-      <c r="R9">
-        <v>28</v>
-      </c>
-      <c r="S9">
-        <v>29</v>
-      </c>
-      <c r="T9">
-        <v>31</v>
-      </c>
-      <c r="U9">
-        <v>32</v>
-      </c>
-      <c r="V9">
-        <v>34</v>
-      </c>
-      <c r="W9">
-        <v>35</v>
-      </c>
-      <c r="X9">
-        <v>36</v>
-      </c>
-      <c r="Y9">
-        <v>37</v>
-      </c>
-      <c r="Z9">
-        <v>38</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>11</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>18</v>
-      </c>
-      <c r="N10">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>21</v>
-      </c>
-      <c r="P10">
-        <v>23</v>
-      </c>
-      <c r="Q10">
-        <v>24</v>
-      </c>
-      <c r="R10">
-        <v>26</v>
-      </c>
-      <c r="S10">
-        <v>27</v>
-      </c>
-      <c r="T10">
-        <v>28</v>
-      </c>
-      <c r="U10">
-        <v>29</v>
-      </c>
-      <c r="V10">
-        <v>31</v>
-      </c>
-      <c r="W10">
-        <v>32</v>
-      </c>
-      <c r="X10">
-        <v>33</v>
-      </c>
-      <c r="Y10">
-        <v>34</v>
-      </c>
-      <c r="Z10">
-        <v>37</v>
-      </c>
-      <c r="AA10">
-        <v>38</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
       <c r="E14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1853,8 +1970,17 @@
       <c r="AE14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1862,227 +1988,245 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>39</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <v>16</v>
-      </c>
-      <c r="L16">
-        <v>17</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>22</v>
-      </c>
-      <c r="P16">
-        <v>23</v>
-      </c>
-      <c r="Q16">
-        <v>24</v>
-      </c>
-      <c r="R16">
-        <v>25</v>
-      </c>
-      <c r="S16">
-        <v>26</v>
-      </c>
-      <c r="T16">
-        <v>29</v>
-      </c>
-      <c r="U16">
-        <v>33</v>
-      </c>
-      <c r="V16">
-        <v>35</v>
-      </c>
-      <c r="W16">
-        <v>37</v>
-      </c>
-      <c r="X16">
-        <v>38</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
       <c r="E17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2138,8 +2282,17 @@
       <c r="AE17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2153,22 +2306,22 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
         <v>21</v>
       </c>
-      <c r="H18">
-        <v>28</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2233,13 +2386,22 @@
       <c r="AE18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2257,170 +2419,188 @@
         <v>6</v>
       </c>
       <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>27</v>
+      </c>
+      <c r="R19">
+        <v>28</v>
+      </c>
+      <c r="S19">
+        <v>29</v>
+      </c>
+      <c r="T19">
+        <v>31</v>
+      </c>
+      <c r="U19">
+        <v>32</v>
+      </c>
+      <c r="V19">
+        <v>34</v>
+      </c>
+      <c r="W19">
+        <v>35</v>
+      </c>
+      <c r="X19">
+        <v>36</v>
+      </c>
+      <c r="Y19">
+        <v>37</v>
+      </c>
+      <c r="Z19">
+        <v>38</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>7</v>
       </c>
-      <c r="I19">
+      <c r="H20">
         <v>8</v>
       </c>
-      <c r="J19">
+      <c r="I20">
         <v>9</v>
       </c>
-      <c r="K19">
+      <c r="J20">
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="M19">
+      <c r="L20">
         <v>13</v>
       </c>
-      <c r="N19">
+      <c r="M20">
         <v>14</v>
       </c>
-      <c r="O19">
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
         <v>17</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>18</v>
       </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-      <c r="R19">
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20">
         <v>22</v>
       </c>
-      <c r="S19">
+      <c r="S20">
+        <v>23</v>
+      </c>
+      <c r="T20">
         <v>24</v>
       </c>
-      <c r="T19">
+      <c r="U20">
         <v>25</v>
       </c>
-      <c r="U19">
+      <c r="V20">
+        <v>26</v>
+      </c>
+      <c r="W20">
         <v>27</v>
       </c>
-      <c r="V19">
+      <c r="X20">
         <v>28</v>
       </c>
-      <c r="W19">
+      <c r="Y20">
         <v>29</v>
       </c>
-      <c r="X19">
+      <c r="Z20">
         <v>31</v>
       </c>
-      <c r="Y19">
+      <c r="AA20">
         <v>32</v>
       </c>
-      <c r="Z19">
+      <c r="AB20">
+        <v>33</v>
+      </c>
+      <c r="AC20">
+        <v>34</v>
+      </c>
+      <c r="AD20">
         <v>35</v>
       </c>
-      <c r="AA19">
+      <c r="AE20">
         <v>36</v>
       </c>
-      <c r="AB19">
+      <c r="AF20">
         <v>37</v>
       </c>
-      <c r="AC19">
+      <c r="AG20">
         <v>38</v>
       </c>
-      <c r="AD19">
-        <v>39</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>26</v>
-      </c>
-      <c r="G20">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>34</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
@@ -2795,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2820,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2834,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2848,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2862,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2876,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2890,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2904,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2918,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2932,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2949,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2960,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2974,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2988,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3002,10 +3182,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3016,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3030,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3044,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3058,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3072,10 +3252,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3086,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3100,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3117,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3128,10 +3308,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3142,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3159,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3170,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3184,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3198,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3215,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3226,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3243,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3268,10 +3448,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3282,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3296,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3310,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3324,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3338,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3352,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3366,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -3380,10 +3560,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3408,10 +3588,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3422,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3450,10 +3630,10 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3467,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3478,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3492,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -3506,10 +3686,10 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3520,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3534,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3562,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3576,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3590,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3604,10 +3784,10 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3621,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3635,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3649,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3660,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3674,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3691,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3705,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3716,10 +3896,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3730,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3744,10 +3924,10 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3758,10 +3938,10 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3772,10 +3952,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3786,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3800,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3814,10 +3994,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3828,10 +4008,10 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3842,10 +4022,10 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3856,10 +4036,10 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3870,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3884,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3898,10 +4078,10 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3912,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -3940,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3954,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -3968,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3982,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3996,10 +4176,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4010,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4027,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4038,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4052,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4066,10 +4246,10 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4083,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4094,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4108,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4122,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4136,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4150,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4164,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4178,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4192,10 +4372,10 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4209,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4223,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4234,7 +4414,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -4248,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4265,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4276,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4290,10 +4470,10 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4304,10 +4484,10 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4318,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4332,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4346,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4360,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4374,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4388,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4402,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4416,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4430,10 +4610,10 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4447,7 +4627,7 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4461,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4472,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4500,7 +4680,7 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4514,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4528,10 +4708,10 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4542,7 +4722,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4556,10 +4736,10 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4573,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4584,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4598,10 +4778,10 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4612,10 +4792,10 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4626,10 +4806,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4654,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4668,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4682,10 +4862,10 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4696,10 +4876,10 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4710,10 +4890,10 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4724,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4741,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4752,10 +4932,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4766,10 +4946,10 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4780,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -4794,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4808,10 +4988,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4822,10 +5002,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4839,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4850,10 +5030,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4864,10 +5044,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4878,10 +5058,10 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4892,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -4906,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -4923,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4934,10 +5114,10 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4948,10 +5128,10 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4962,10 +5142,10 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4976,10 +5156,10 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4993,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5004,10 +5184,10 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5021,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5032,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5049,7 +5229,7 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5060,10 +5240,10 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5074,10 +5254,10 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5088,10 +5268,10 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5116,10 +5296,10 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5130,10 +5310,10 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5144,10 +5324,10 @@
         <v>5</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5158,10 +5338,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5175,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5186,10 +5366,10 @@
         <v>5</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5200,10 +5380,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5214,10 +5394,10 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5228,10 +5408,10 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5242,10 +5422,10 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5256,10 +5436,10 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5270,10 +5450,10 @@
         <v>5</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5287,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5298,10 +5478,10 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5312,10 +5492,10 @@
         <v>5</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5329,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5343,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5357,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5371,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5382,10 +5562,10 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5396,10 +5576,10 @@
         <v>5</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5413,7 +5593,7 @@
         <v>2</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5424,10 +5604,10 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5438,10 +5618,10 @@
         <v>5</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5452,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5466,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -5480,10 +5660,10 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5494,10 +5674,10 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">

--- a/sortData.xlsx
+++ b/sortData.xlsx
@@ -25,6 +25,69 @@
     <t>Statement</t>
   </si>
   <si>
+    <t>We should create a new brand that encompasses both of our old ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We need to focus on building customer loyalty first making profit second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to make sure our employees feel on board with all of the changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to listen to our respective patrons’ desires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to stay open as a bar in the evenings to gain new market share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I think we might have to hire new managers to embrace the new changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We will have to use social media marketing to make our patrons aware of the change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We should revamp our menu to include top dishes from both places and new ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We ought to work with the city government to reduce monopolistic concerns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want our workers to be tipped to supplement their wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We should try to hire high schoolers or BOCES students to diversity our labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We need to make the merger feel like both companies are represented equally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Our investors will need to see steady growth fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We should think about a way to reward our full-time employees making the transition with us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We need to acquire new customers with the new brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We need to be careful in order to retain old customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I am concerned that the culture will be dominated by Waffle Frolic’s management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I am worried that Waffle Frolic’s employees will not respect Ithaca Coffee. Co's management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I think that we should focus our menu and market on the quality of our coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We should schedule a community celebration event for the grand opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We need to put our employees to work</t>
+  </si>
+  <si>
     <t>I am concerned about working fewer hours</t>
   </si>
   <si>
@@ -34,112 +97,49 @@
     <t>I want less of a corporate feel to the workplace</t>
   </si>
   <si>
-    <t>I would like to be able to play my own music over the PA</t>
+    <t xml:space="preserve">    I would like to be able to play my own music over the PA</t>
   </si>
   <si>
-    <t>I think having an open floor plan would be more welcoming</t>
+    <t xml:space="preserve">    I think having an open floor plan would be more welcoming</t>
   </si>
   <si>
-    <t>I don’t think we ought to serve tables</t>
+    <t xml:space="preserve">    I don’t think we ought to serve tables</t>
   </si>
   <si>
-    <t>I want to make sure that our new boss values COVID safety</t>
+    <t xml:space="preserve">    I want to make sure that our new boss values COVID safety</t>
   </si>
   <si>
-    <t>I want to avoid the possibility of being understaffed</t>
+    <t xml:space="preserve">    I want to avoid the possibility of being understaffed</t>
   </si>
   <si>
-    <t>It would be ideal to have a manger present at all times, especially in the first few weeks</t>
+    <t xml:space="preserve">    It would be ideal to have a manger present at all times especially in the first few weeks</t>
   </si>
   <si>
-    <t>I was hoping to work for tips to feel like my effort is rewarded</t>
+    <t xml:space="preserve">    I was hoping to work for tips to feel like my effort is rewarded</t>
   </si>
   <si>
-    <t>I want to build a culture that values honesty and humility</t>
+    <t xml:space="preserve">    I want to build a culture that values honesty and humility</t>
   </si>
   <si>
-    <t>We should meet with management more often to talk about how things are going</t>
+    <t xml:space="preserve">    We should meet with management more often to talk about how things are going</t>
   </si>
   <si>
-    <t>I want a boss that respects me</t>
+    <t xml:space="preserve">    I want a boss that respects me</t>
   </si>
   <si>
-    <t>Employees will leave if it seems all that management cares about is making money</t>
+    <t xml:space="preserve">    Employees will leave if it seems all that management cares about is making money</t>
   </si>
   <si>
-    <t>I am concerned about my new coworkers being lazy</t>
+    <t xml:space="preserve">    I am concerned about my new coworkers being lazy</t>
   </si>
   <si>
-    <t>It has been a while since this company has had a change like this</t>
+    <t xml:space="preserve">    It has been a while since this company has had a change like this</t>
   </si>
   <si>
-    <t>I think there needs to be a promotional ladder of some sort</t>
+    <t xml:space="preserve">    I think there needs to be a promotional ladder of some sort</t>
   </si>
   <si>
-    <t>I want to make sure the quality of our food stays high</t>
-  </si>
-  <si>
-    <t>We should create a new brand that encompasses both of our old ones</t>
-  </si>
-  <si>
-    <t>We need to focus on building customer loyalty first, making profit second</t>
-  </si>
-  <si>
-    <t>I want to make sure our employees feel on board with all of the changes</t>
-  </si>
-  <si>
-    <t>I want to listen to our respective patrons’ desires</t>
-  </si>
-  <si>
-    <t>I want to stay open as a bar in the evenings to gain new market share</t>
-  </si>
-  <si>
-    <t>I think we might have to hire new managers to embrace the new changes</t>
-  </si>
-  <si>
-    <t>We will have to use social media marketing to make our patrons aware of the change</t>
-  </si>
-  <si>
-    <t>We should revamp our menu to include top dishes from both places, and new ones</t>
-  </si>
-  <si>
-    <t>We ought to work with the city government to reduce monopolistic concerns</t>
-  </si>
-  <si>
-    <t>I want our workers to be tipped to supplement their wages</t>
-  </si>
-  <si>
-    <t>We should try to hire high schoolers or BOCES students to diversity our labor</t>
-  </si>
-  <si>
-    <t>We need to make the merger feel like both companies are represented equally</t>
-  </si>
-  <si>
-    <t>Our investors will need to see steady growth, fast</t>
-  </si>
-  <si>
-    <t>We should think about a way to reward our full-time employees making the transition with us</t>
-  </si>
-  <si>
-    <t>We need to acquire new customers with the new brand</t>
-  </si>
-  <si>
-    <t>We need to be careful in order to retain old customers</t>
-  </si>
-  <si>
-    <t>I am concerned that the culture will be dominated by Waffle Frolic’s management</t>
-  </si>
-  <si>
-    <t>I am worried that Waffle Frolic’s employees will not respect Ithaca Coffee. Co's management</t>
-  </si>
-  <si>
-    <t>I think that we should focus our menu and market on the quality of our coffee</t>
-  </si>
-  <si>
-    <t>We should schedule a community celebration event for the grand opening</t>
-  </si>
-  <si>
-    <t>We need to put our employees to work</t>
+    <t xml:space="preserve">    I want to make sure the quality of our food stays high</t>
   </si>
   <si>
     <t>UserID</t>
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1">
         <v>1</v>
       </c>
@@ -532,447 +532,471 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1">
+        <v>27</v>
+      </c>
+      <c r="E1">
+        <v>38</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>29</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>31</v>
+      </c>
+      <c r="V2">
+        <v>32</v>
+      </c>
+      <c r="W2">
+        <v>33</v>
+      </c>
+      <c r="X2">
+        <v>34</v>
+      </c>
+      <c r="Y2">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>36</v>
+      </c>
+      <c r="AA2">
+        <v>39</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E1">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="F1">
-        <v>17</v>
-      </c>
-      <c r="G1">
-        <v>19</v>
-      </c>
-      <c r="H1">
-        <v>23</v>
-      </c>
-      <c r="I1">
-        <v>24</v>
-      </c>
-      <c r="J1">
-        <v>26</v>
-      </c>
-      <c r="K1">
-        <v>27</v>
-      </c>
-      <c r="L1">
-        <v>33</v>
-      </c>
-      <c r="M1">
-        <v>38</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="H4">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>36</v>
-      </c>
-      <c r="K4">
+      <c r="F5">
         <v>37</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
       <c r="G5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1043,8 +1067,14 @@
       <c r="AH5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1064,729 +1094,771 @@
         <v>8</v>
       </c>
       <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>38</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>31</v>
+      </c>
+      <c r="R7">
+        <v>32</v>
+      </c>
+      <c r="S7">
+        <v>33</v>
+      </c>
+      <c r="T7">
+        <v>35</v>
+      </c>
+      <c r="U7">
+        <v>37</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>15</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>19</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6">
-        <v>23</v>
-      </c>
-      <c r="P6">
-        <v>24</v>
-      </c>
-      <c r="Q6">
-        <v>25</v>
-      </c>
-      <c r="R6">
-        <v>26</v>
-      </c>
-      <c r="S6">
-        <v>28</v>
-      </c>
-      <c r="T6">
-        <v>29</v>
-      </c>
-      <c r="U6">
-        <v>32</v>
-      </c>
-      <c r="V6">
-        <v>35</v>
-      </c>
-      <c r="W6">
-        <v>36</v>
-      </c>
-      <c r="X6">
-        <v>37</v>
-      </c>
-      <c r="Y6">
-        <v>38</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>21</v>
-      </c>
-      <c r="I9">
-        <v>27</v>
-      </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>39</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>34</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
-      </c>
-      <c r="K11">
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <v>29</v>
-      </c>
-      <c r="M11">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>38</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>39</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>35</v>
       </c>
       <c r="F13">
         <v>36</v>
@@ -1875,732 +1947,780 @@
       <c r="AH13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="O14">
+        <v>33</v>
+      </c>
+      <c r="P14">
+        <v>34</v>
+      </c>
+      <c r="Q14">
+        <v>39</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
+      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>19</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>22</v>
+      </c>
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>26</v>
+      </c>
+      <c r="W17">
+        <v>27</v>
+      </c>
+      <c r="X17">
+        <v>28</v>
+      </c>
+      <c r="Y17">
+        <v>29</v>
+      </c>
+      <c r="Z17">
+        <v>30</v>
+      </c>
+      <c r="AA17">
+        <v>31</v>
+      </c>
+      <c r="AB17">
+        <v>32</v>
+      </c>
+      <c r="AC17">
+        <v>33</v>
+      </c>
+      <c r="AD17">
+        <v>34</v>
+      </c>
+      <c r="AE17">
+        <v>35</v>
+      </c>
+      <c r="AF17">
+        <v>36</v>
+      </c>
+      <c r="AG17">
+        <v>37</v>
+      </c>
+      <c r="AH17">
+        <v>38</v>
+      </c>
+      <c r="AI17">
+        <v>39</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>36</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>23</v>
+      </c>
+      <c r="O19">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <v>25</v>
+      </c>
+      <c r="Q19">
+        <v>26</v>
+      </c>
+      <c r="R19">
+        <v>27</v>
+      </c>
+      <c r="S19">
         <v>28</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="T19">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <v>31</v>
+      </c>
+      <c r="W19">
+        <v>32</v>
+      </c>
+      <c r="X19">
+        <v>34</v>
+      </c>
+      <c r="Y19">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>39</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>26</v>
-      </c>
-      <c r="G16">
+      <c r="G20">
         <v>33</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>21</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>30</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19">
-        <v>12</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>17</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>27</v>
-      </c>
-      <c r="R19">
-        <v>28</v>
-      </c>
-      <c r="S19">
-        <v>29</v>
-      </c>
-      <c r="T19">
-        <v>31</v>
-      </c>
-      <c r="U19">
-        <v>32</v>
-      </c>
-      <c r="V19">
-        <v>34</v>
-      </c>
-      <c r="W19">
+      <c r="H20">
         <v>35</v>
       </c>
-      <c r="X19">
-        <v>36</v>
-      </c>
-      <c r="Y19">
-        <v>37</v>
-      </c>
-      <c r="Z19">
-        <v>38</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
       <c r="I20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>0</v>
       </c>
     </row>
@@ -2972,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2989,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3000,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3028,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3042,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3059,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3070,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3084,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3098,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3112,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3140,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3171,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3182,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3199,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3210,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3224,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3241,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3252,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3266,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3283,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3294,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3308,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3322,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3336,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3350,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3364,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3381,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3392,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3406,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3420,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3437,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3448,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3462,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3476,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3490,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3504,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -3518,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3532,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3546,10 +3666,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3560,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3574,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3588,10 +3708,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3605,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3630,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -3647,7 +3767,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3658,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3672,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3686,10 +3806,10 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3700,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3714,10 +3834,10 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3728,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -3745,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3756,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3770,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3784,10 +3904,10 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3798,10 +3918,10 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3812,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3826,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3840,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3854,10 +3974,10 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3868,10 +3988,10 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3882,10 +4002,10 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3896,10 +4016,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3910,10 +4030,10 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3927,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3941,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3952,10 +4072,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3966,10 +4086,10 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3980,10 +4100,10 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3994,10 +4114,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4008,10 +4128,10 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4022,10 +4142,10 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4050,10 +4170,10 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4064,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4078,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4092,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4106,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4120,10 +4240,10 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4134,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4148,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -4162,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -4176,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4193,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4204,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4218,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4249,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4260,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4274,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4288,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4302,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4316,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4330,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4347,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4361,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4372,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4386,10 +4506,10 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4400,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -4417,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4428,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -4442,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4456,10 +4576,10 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4470,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -4484,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4498,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4515,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4529,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4540,10 +4660,10 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4554,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4568,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4582,10 +4702,10 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4599,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4610,10 +4730,10 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4624,10 +4744,10 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4638,10 +4758,10 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4655,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4666,10 +4786,10 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4680,10 +4800,10 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4694,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -4708,10 +4828,10 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4722,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4739,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4750,10 +4870,10 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4764,10 +4884,10 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4778,10 +4898,10 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4792,10 +4912,10 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4806,10 +4926,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4820,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4834,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4848,10 +4968,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4862,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4876,10 +4996,10 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4893,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4904,10 +5024,10 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4918,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -4932,10 +5052,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4946,10 +5066,10 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4960,10 +5080,10 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4974,10 +5094,10 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4988,10 +5108,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5002,10 +5122,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5030,10 +5150,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5044,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -5058,10 +5178,10 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5072,10 +5192,10 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5086,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -5100,10 +5220,10 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5114,10 +5234,10 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5128,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5142,10 +5262,10 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5156,10 +5276,10 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5170,10 +5290,10 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5184,10 +5304,10 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5201,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5226,10 +5346,10 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5243,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5257,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5268,10 +5388,10 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5282,10 +5402,10 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5296,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5310,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -5324,10 +5444,10 @@
         <v>5</v>
       </c>
       <c r="C170">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5338,10 +5458,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5352,10 +5472,10 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5366,10 +5486,10 @@
         <v>5</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5380,10 +5500,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5411,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5422,10 +5542,10 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5439,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5450,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5464,10 +5584,10 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5478,7 +5598,7 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -5495,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5506,10 +5626,10 @@
         <v>5</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5523,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5534,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -5551,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5562,10 +5682,10 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5579,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5604,10 +5724,10 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5621,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5632,10 +5752,10 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5646,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -5663,7 +5783,7 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5674,10 +5794,10 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5688,10 +5808,10 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sortData.xlsx
+++ b/sortData.xlsx
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1">
         <v>1</v>
       </c>
@@ -532,551 +532,581 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <v>16</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
         <v>9</v>
       </c>
-      <c r="D1">
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>19</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>21</v>
+      </c>
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>23</v>
+      </c>
+      <c r="V2">
+        <v>24</v>
+      </c>
+      <c r="W2">
+        <v>25</v>
+      </c>
+      <c r="X2">
+        <v>26</v>
+      </c>
+      <c r="Y2">
         <v>27</v>
       </c>
-      <c r="E1">
+      <c r="Z2">
+        <v>28</v>
+      </c>
+      <c r="AA2">
+        <v>29</v>
+      </c>
+      <c r="AB2">
+        <v>30</v>
+      </c>
+      <c r="AC2">
+        <v>31</v>
+      </c>
+      <c r="AD2">
+        <v>32</v>
+      </c>
+      <c r="AE2">
+        <v>33</v>
+      </c>
+      <c r="AF2">
+        <v>34</v>
+      </c>
+      <c r="AG2">
+        <v>35</v>
+      </c>
+      <c r="AH2">
+        <v>36</v>
+      </c>
+      <c r="AI2">
+        <v>37</v>
+      </c>
+      <c r="AJ2">
         <v>38</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="AK2">
+        <v>39</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="P5">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="Q5">
         <v>19</v>
       </c>
-      <c r="L2">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="S5">
         <v>21</v>
       </c>
-      <c r="N2">
+      <c r="T5">
         <v>22</v>
       </c>
-      <c r="O2">
+      <c r="U5">
         <v>23</v>
       </c>
-      <c r="P2">
+      <c r="V5">
         <v>24</v>
       </c>
-      <c r="Q2">
+      <c r="W5">
+        <v>25</v>
+      </c>
+      <c r="X5">
         <v>26</v>
       </c>
-      <c r="R2">
+      <c r="Y5">
+        <v>27</v>
+      </c>
+      <c r="Z5">
         <v>28</v>
       </c>
-      <c r="S2">
+      <c r="AA5">
         <v>29</v>
       </c>
-      <c r="T2">
+      <c r="AB5">
         <v>30</v>
       </c>
-      <c r="U2">
+      <c r="AC5">
         <v>31</v>
       </c>
-      <c r="V2">
+      <c r="AD5">
         <v>32</v>
       </c>
-      <c r="W2">
+      <c r="AE5">
         <v>33</v>
       </c>
-      <c r="X2">
+      <c r="AF5">
         <v>34</v>
       </c>
-      <c r="Y2">
+      <c r="AG5">
         <v>35</v>
       </c>
-      <c r="Z2">
+      <c r="AH5">
         <v>36</v>
       </c>
-      <c r="AA2">
+      <c r="AI5">
+        <v>37</v>
+      </c>
+      <c r="AJ5">
+        <v>38</v>
+      </c>
+      <c r="AK5">
         <v>39</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>37</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1094,609 +1124,639 @@
         <v>8</v>
       </c>
       <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <v>26</v>
       </c>
-      <c r="K6">
+      <c r="O11">
         <v>27</v>
       </c>
-      <c r="L6">
+      <c r="P11">
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>31</v>
+      </c>
+      <c r="S11">
+        <v>33</v>
+      </c>
+      <c r="T11">
+        <v>34</v>
+      </c>
+      <c r="U11">
         <v>36</v>
       </c>
-      <c r="M6">
+      <c r="V11">
+        <v>37</v>
+      </c>
+      <c r="W11">
         <v>38</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>29</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>31</v>
-      </c>
-      <c r="R7">
-        <v>32</v>
-      </c>
-      <c r="S7">
-        <v>33</v>
-      </c>
-      <c r="T7">
-        <v>35</v>
-      </c>
-      <c r="U7">
-        <v>37</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-      <c r="F10">
+      <c r="X11">
         <v>39</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
@@ -1733,994 +1793,706 @@
       <c r="AJ11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
       <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>22</v>
+      </c>
+      <c r="S13">
+        <v>23</v>
+      </c>
+      <c r="T13">
         <v>24</v>
       </c>
-      <c r="F12">
+      <c r="U13">
         <v>25</v>
       </c>
-      <c r="G12">
+      <c r="V13">
+        <v>26</v>
+      </c>
+      <c r="W13">
+        <v>27</v>
+      </c>
+      <c r="X13">
+        <v>28</v>
+      </c>
+      <c r="Y13">
+        <v>29</v>
+      </c>
+      <c r="Z13">
+        <v>30</v>
+      </c>
+      <c r="AA13">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="AB13">
+        <v>32</v>
+      </c>
+      <c r="AC13">
+        <v>33</v>
+      </c>
+      <c r="AD13">
+        <v>34</v>
+      </c>
+      <c r="AE13">
+        <v>35</v>
+      </c>
+      <c r="AF13">
+        <v>36</v>
+      </c>
+      <c r="AG13">
         <v>37</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
+      <c r="G17">
         <v>13</v>
       </c>
-      <c r="I14">
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>19</v>
+      </c>
+      <c r="M17">
         <v>21</v>
       </c>
-      <c r="J14">
-        <v>22</v>
-      </c>
-      <c r="K14">
+      <c r="N17">
         <v>23</v>
       </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>29</v>
-      </c>
-      <c r="N14">
-        <v>32</v>
-      </c>
-      <c r="O14">
-        <v>33</v>
-      </c>
-      <c r="P14">
-        <v>34</v>
-      </c>
-      <c r="Q14">
-        <v>39</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>26</v>
-      </c>
-      <c r="G15">
+      <c r="O17">
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="P17">
         <v>35</v>
       </c>
-      <c r="I15">
-        <v>38</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>11</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>17</v>
-      </c>
-      <c r="O17">
-        <v>18</v>
-      </c>
-      <c r="P17">
-        <v>19</v>
-      </c>
       <c r="Q17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>36</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>13</v>
-      </c>
-      <c r="K19">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>23</v>
-      </c>
-      <c r="O19">
-        <v>24</v>
-      </c>
-      <c r="P19">
-        <v>25</v>
-      </c>
-      <c r="Q19">
-        <v>26</v>
-      </c>
-      <c r="R19">
-        <v>27</v>
-      </c>
-      <c r="S19">
-        <v>28</v>
-      </c>
-      <c r="T19">
-        <v>29</v>
-      </c>
-      <c r="U19">
-        <v>30</v>
-      </c>
-      <c r="V19">
-        <v>31</v>
-      </c>
-      <c r="W19">
-        <v>32</v>
-      </c>
-      <c r="X19">
-        <v>34</v>
-      </c>
-      <c r="Y19">
-        <v>38</v>
-      </c>
-      <c r="Z19">
-        <v>39</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>0</v>
       </c>
     </row>
@@ -3092,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3106,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3120,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3137,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3148,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3165,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3179,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3190,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3204,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3218,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3232,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3246,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3260,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3274,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -3288,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3305,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3316,10 +3088,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3330,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3344,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3358,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3372,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3386,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3400,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3414,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3428,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3442,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -3459,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3473,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3484,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3498,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3515,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3526,10 +3298,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3540,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3557,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3568,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3582,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3596,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3613,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3624,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -3652,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3666,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3680,10 +3452,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3694,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -3708,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3722,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3736,10 +3508,10 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3750,10 +3522,10 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3764,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3778,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3792,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3806,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3834,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3848,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3865,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3890,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3918,10 +3690,10 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3949,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3960,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3977,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3988,10 +3760,10 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4005,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4016,10 +3788,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4030,10 +3802,10 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4047,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4058,10 +3830,10 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4072,10 +3844,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4086,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4100,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4114,10 +3886,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4128,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4142,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -4156,10 +3928,10 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4170,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4184,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4201,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4212,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -4226,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4240,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4254,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4271,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4282,10 +4054,10 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4296,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4310,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4324,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4338,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4366,10 +4138,10 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4380,10 +4152,10 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4397,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4408,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4422,10 +4194,10 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4436,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4450,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4478,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4492,10 +4264,10 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4506,10 +4278,10 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4520,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4534,10 +4306,10 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4548,10 +4320,10 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4562,10 +4334,10 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4576,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4590,10 +4362,10 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4607,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4618,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4632,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4646,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -4660,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -4674,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -4691,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4702,10 +4474,10 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4716,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -4730,10 +4502,10 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4747,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4758,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -4772,7 +4544,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4786,10 +4558,10 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4800,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4814,10 +4586,10 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4828,10 +4600,10 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4842,7 +4614,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4859,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4870,10 +4642,10 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4898,7 +4670,7 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -4912,10 +4684,10 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4926,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4943,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4954,10 +4726,10 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4968,10 +4740,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4985,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4996,10 +4768,10 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5010,10 +4782,10 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5024,10 +4796,10 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5041,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5052,10 +4824,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5066,10 +4838,10 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5080,10 +4852,10 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5097,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5108,10 +4880,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5122,10 +4894,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5139,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5150,10 +4922,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5164,10 +4936,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5178,10 +4950,10 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5192,7 +4964,7 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -5206,10 +4978,10 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5220,10 +4992,10 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5234,10 +5006,10 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5248,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5262,10 +5034,10 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5276,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158">
         <v>4</v>
@@ -5290,10 +5062,10 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5304,10 +5076,10 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5318,10 +5090,10 @@
         <v>5</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5332,10 +5104,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5346,10 +5118,10 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5360,10 +5132,10 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5374,10 +5146,10 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5388,10 +5160,10 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5402,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5416,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5430,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -5447,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5458,10 +5230,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5472,10 +5244,10 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5486,10 +5258,10 @@
         <v>5</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5500,10 +5272,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5517,7 +5289,7 @@
         <v>2</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5528,10 +5300,10 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5542,10 +5314,10 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5556,10 +5328,10 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5573,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5584,10 +5356,10 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5598,10 +5370,10 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5615,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5640,10 +5412,10 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5654,7 +5426,7 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -5682,10 +5454,10 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5696,10 +5468,10 @@
         <v>5</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5710,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -5727,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5741,7 +5513,7 @@
         <v>4</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5752,10 +5524,10 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5766,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -5780,10 +5552,10 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5794,10 +5566,10 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5808,10 +5580,10 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sortData.xlsx
+++ b/sortData.xlsx
@@ -23,6 +23,60 @@
   </si>
   <si>
     <t>Statement</t>
+  </si>
+  <si>
+    <t>I am concerned about working fewer hours</t>
+  </si>
+  <si>
+    <t>I want to have fun when I go to work</t>
+  </si>
+  <si>
+    <t>I want less of a corporate feel to the workplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I would like to be able to play my own music over the PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I think having an open floor plan would be more welcoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I don’t think we ought to serve tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to make sure that our new boss values COVID safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to avoid the possibility of being understaffed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    It would be ideal to have a manger present at all times especially in the first few weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I was hoping to work for tips to feel like my effort is rewarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to build a culture that values honesty and humility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    We should meet with management more often to talk about how things are going</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want a boss that respects me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Employees will leave if it seems all that management cares about is making money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I am concerned about my new coworkers being lazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    It has been a while since this company has had a change like this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I think there needs to be a promotional ladder of some sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I want to make sure the quality of our food stays high</t>
   </si>
   <si>
     <t>We should create a new brand that encompasses both of our old ones</t>
@@ -86,60 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">    We need to put our employees to work</t>
-  </si>
-  <si>
-    <t>I am concerned about working fewer hours</t>
-  </si>
-  <si>
-    <t>I want to have fun when I go to work</t>
-  </si>
-  <si>
-    <t>I want less of a corporate feel to the workplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I would like to be able to play my own music over the PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I think having an open floor plan would be more welcoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I don’t think we ought to serve tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I want to make sure that our new boss values COVID safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I want to avoid the possibility of being understaffed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    It would be ideal to have a manger present at all times especially in the first few weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I was hoping to work for tips to feel like my effort is rewarded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I want to build a culture that values honesty and humility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    We should meet with management more often to talk about how things are going</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I want a boss that respects me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Employees will leave if it seems all that management cares about is making money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I am concerned about my new coworkers being lazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    It has been a while since this company has had a change like this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I think there needs to be a promotional ladder of some sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I want to make sure the quality of our food stays high</t>
   </si>
   <si>
     <t>UserID</t>
@@ -518,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:34">
       <c r="A1">
         <v>1</v>
       </c>
@@ -532,46 +532,46 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+      <c r="G1">
         <v>16</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
       <c r="H1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q1">
         <v>0</v>
@@ -627,20 +627,8 @@
       <c r="AH1">
         <v>0</v>
       </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
-      </c>
-      <c r="AL1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -648,709 +636,637 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <v>39</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>19</v>
       </c>
-      <c r="R2">
+      <c r="K7">
         <v>20</v>
       </c>
-      <c r="S2">
-        <v>21</v>
-      </c>
-      <c r="T2">
-        <v>22</v>
-      </c>
-      <c r="U2">
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="V2">
+      <c r="M7">
         <v>24</v>
       </c>
-      <c r="W2">
-        <v>25</v>
-      </c>
-      <c r="X2">
+      <c r="N7">
         <v>26</v>
       </c>
-      <c r="Y2">
+      <c r="O7">
         <v>27</v>
       </c>
-      <c r="Z2">
-        <v>28</v>
-      </c>
-      <c r="AA2">
+      <c r="P7">
+        <v>31</v>
+      </c>
+      <c r="Q7">
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>37</v>
+      </c>
+      <c r="T7">
+        <v>38</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>29</v>
       </c>
-      <c r="AB2">
-        <v>30</v>
-      </c>
-      <c r="AC2">
-        <v>31</v>
-      </c>
-      <c r="AD2">
-        <v>32</v>
-      </c>
-      <c r="AE2">
-        <v>33</v>
-      </c>
-      <c r="AF2">
-        <v>34</v>
-      </c>
-      <c r="AG2">
-        <v>35</v>
-      </c>
-      <c r="AH2">
-        <v>36</v>
-      </c>
-      <c r="AI2">
-        <v>37</v>
-      </c>
-      <c r="AJ2">
-        <v>38</v>
-      </c>
-      <c r="AK2">
-        <v>39</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
-      <c r="O5">
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <v>18</v>
-      </c>
-      <c r="Q5">
-        <v>19</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
-      </c>
-      <c r="S5">
-        <v>21</v>
-      </c>
-      <c r="T5">
-        <v>22</v>
-      </c>
-      <c r="U5">
-        <v>23</v>
-      </c>
-      <c r="V5">
-        <v>24</v>
-      </c>
-      <c r="W5">
-        <v>25</v>
-      </c>
-      <c r="X5">
-        <v>26</v>
-      </c>
-      <c r="Y5">
-        <v>27</v>
-      </c>
-      <c r="Z5">
-        <v>28</v>
-      </c>
-      <c r="AA5">
-        <v>29</v>
-      </c>
-      <c r="AB5">
-        <v>30</v>
-      </c>
-      <c r="AC5">
-        <v>31</v>
-      </c>
-      <c r="AD5">
-        <v>32</v>
-      </c>
-      <c r="AE5">
-        <v>33</v>
-      </c>
-      <c r="AF5">
-        <v>34</v>
-      </c>
-      <c r="AG5">
-        <v>35</v>
-      </c>
-      <c r="AH5">
-        <v>36</v>
-      </c>
-      <c r="AI5">
-        <v>37</v>
-      </c>
-      <c r="AJ5">
-        <v>38</v>
-      </c>
-      <c r="AK5">
-        <v>39</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
       <c r="E8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1439,22 +1355,10 @@
       <c r="AH8">
         <v>0</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1466,150 +1370,138 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
         <v>32</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1671,828 +1563,940 @@
       <c r="AH10">
         <v>0</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>13</v>
       </c>
-      <c r="I11">
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
         <v>19</v>
       </c>
-      <c r="J11">
+      <c r="O11">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <v>24</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>28</v>
+      </c>
+      <c r="T11">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>31</v>
+      </c>
+      <c r="W11">
+        <v>33</v>
+      </c>
+      <c r="X11">
+        <v>35</v>
+      </c>
+      <c r="Y11">
+        <v>37</v>
+      </c>
+      <c r="Z11">
+        <v>38</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
         <v>22</v>
       </c>
-      <c r="L11">
+      <c r="S15">
+        <v>23</v>
+      </c>
+      <c r="T15">
         <v>24</v>
       </c>
-      <c r="M11">
+      <c r="U15">
         <v>25</v>
       </c>
-      <c r="N11">
+      <c r="V15">
         <v>26</v>
       </c>
-      <c r="O11">
+      <c r="W15">
         <v>27</v>
       </c>
-      <c r="P11">
+      <c r="X15">
         <v>28</v>
       </c>
-      <c r="Q11">
+      <c r="Y15">
+        <v>29</v>
+      </c>
+      <c r="Z15">
+        <v>31</v>
+      </c>
+      <c r="AA15">
+        <v>32</v>
+      </c>
+      <c r="AB15">
+        <v>33</v>
+      </c>
+      <c r="AC15">
+        <v>34</v>
+      </c>
+      <c r="AD15">
+        <v>35</v>
+      </c>
+      <c r="AE15">
+        <v>36</v>
+      </c>
+      <c r="AF15">
+        <v>37</v>
+      </c>
+      <c r="AG15">
+        <v>38</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
         <v>30</v>
       </c>
-      <c r="R11">
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+      <c r="Q17">
+        <v>27</v>
+      </c>
+      <c r="R17">
+        <v>28</v>
+      </c>
+      <c r="S17">
+        <v>29</v>
+      </c>
+      <c r="T17">
         <v>31</v>
       </c>
-      <c r="S11">
-        <v>33</v>
-      </c>
-      <c r="T11">
-        <v>34</v>
-      </c>
-      <c r="U11">
+      <c r="U17">
+        <v>35</v>
+      </c>
+      <c r="V17">
         <v>36</v>
       </c>
-      <c r="V11">
+      <c r="W17">
+        <v>38</v>
+      </c>
+      <c r="X17">
+        <v>39</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
         <v>37</v>
       </c>
-      <c r="W11">
-        <v>38</v>
-      </c>
-      <c r="X11">
-        <v>39</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>17</v>
-      </c>
-      <c r="O13">
-        <v>18</v>
-      </c>
-      <c r="P13">
-        <v>19</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-      <c r="R13">
-        <v>22</v>
-      </c>
-      <c r="S13">
-        <v>23</v>
-      </c>
-      <c r="T13">
-        <v>24</v>
-      </c>
-      <c r="U13">
-        <v>25</v>
-      </c>
-      <c r="V13">
-        <v>26</v>
-      </c>
-      <c r="W13">
-        <v>27</v>
-      </c>
-      <c r="X13">
-        <v>28</v>
-      </c>
-      <c r="Y13">
-        <v>29</v>
-      </c>
-      <c r="Z13">
-        <v>30</v>
-      </c>
-      <c r="AA13">
-        <v>31</v>
-      </c>
-      <c r="AB13">
-        <v>32</v>
-      </c>
-      <c r="AC13">
-        <v>33</v>
-      </c>
-      <c r="AD13">
-        <v>34</v>
-      </c>
-      <c r="AE13">
-        <v>35</v>
-      </c>
-      <c r="AF13">
-        <v>36</v>
-      </c>
-      <c r="AG13">
-        <v>37</v>
-      </c>
-      <c r="AH13">
-        <v>38</v>
-      </c>
-      <c r="AI13">
-        <v>39</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>18</v>
-      </c>
-      <c r="L17">
-        <v>19</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>23</v>
-      </c>
-      <c r="O17">
-        <v>27</v>
-      </c>
-      <c r="P17">
-        <v>35</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>0</v>
       </c>
     </row>
@@ -2864,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2878,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2892,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2934,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2948,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2962,10 +2966,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2976,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2990,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3004,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3018,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3032,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3060,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3077,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3091,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3102,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3119,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3130,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3144,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3158,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3175,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3189,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3200,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3214,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3228,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3242,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3259,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3270,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3287,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3298,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3312,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3326,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3343,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3354,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3368,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3382,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3396,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3413,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3427,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3438,10 +3442,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3452,10 +3456,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3469,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3483,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3494,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -3508,10 +3512,10 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3522,10 +3526,10 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3536,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3550,10 +3554,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3567,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3578,10 +3582,10 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3595,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3606,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3620,10 +3624,10 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3634,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3648,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3665,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3676,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3693,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3704,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3721,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3746,10 +3750,10 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3760,10 +3764,10 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3774,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3788,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3802,10 +3806,10 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3819,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3833,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3844,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3858,10 +3862,10 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3872,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3886,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3900,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3914,10 +3918,10 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3928,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3942,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3956,10 +3960,10 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3970,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3984,10 +3988,10 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3998,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4012,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4026,10 +4030,10 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4040,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4054,10 +4058,10 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4068,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4082,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4110,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4124,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4138,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4169,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4180,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4194,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4208,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4222,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4236,10 +4240,10 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4253,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4264,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4278,10 +4282,10 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4292,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4306,10 +4310,10 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4320,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -4334,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4348,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -4362,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4376,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -4390,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4404,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4418,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -4435,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4446,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4460,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4474,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4488,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4502,10 +4506,10 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4516,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -4530,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -4544,10 +4548,10 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4558,10 +4562,10 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4572,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4586,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -4600,10 +4604,10 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4614,10 +4618,10 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4628,10 +4632,10 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4642,10 +4646,10 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4656,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4670,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -4698,10 +4702,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4712,10 +4716,10 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4729,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4743,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4754,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4771,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4782,10 +4786,10 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4796,10 +4800,10 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4810,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -4824,10 +4828,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4838,10 +4842,10 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4852,10 +4856,10 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4866,10 +4870,10 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4880,10 +4884,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4894,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -4911,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4925,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4936,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4950,10 +4954,10 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4964,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -4978,10 +4982,10 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4995,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5006,10 +5010,10 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5020,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5034,10 +5038,10 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5048,7 +5052,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158">
         <v>4</v>
@@ -5062,10 +5066,10 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5090,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -5104,10 +5108,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5118,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -5132,10 +5136,10 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5149,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5160,10 +5164,10 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5174,10 +5178,10 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5188,10 +5192,10 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5202,10 +5206,10 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5219,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5230,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5244,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -5261,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5275,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5286,10 +5290,10 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5300,10 +5304,10 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5314,10 +5318,10 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5328,10 +5332,10 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5342,10 +5346,10 @@
         <v>5</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5356,10 +5360,10 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5370,10 +5374,10 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5384,10 +5388,10 @@
         <v>5</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5401,7 +5405,7 @@
         <v>4</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5412,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5429,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5440,10 +5444,10 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5454,10 +5458,10 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5471,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5482,7 +5486,7 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -5496,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -5524,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -5538,10 +5542,10 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5555,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5566,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5580,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>4</v>
